--- a/voter-turnout-history-20161017/voter-turnout-history-20161017.xlsx
+++ b/voter-turnout-history-20161017/voter-turnout-history-20161017.xlsx
@@ -14,355 +14,355 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>date</t>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Midterm</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>General</t>
+    <t>1789</t>
   </si>
   <si>
     <t>headline</t>
   </si>
   <si>
-    <t>Midterm</t>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1794</t>
   </si>
   <si>
     <t>Historic Turnout In U.S. Elections</t>
   </si>
   <si>
-    <t>1789</t>
+    <t>1796</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1814</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>1822</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>1826</t>
   </si>
   <si>
     <t>subhed</t>
   </si>
   <si>
+    <t>1828</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a percentage of estimated eligible voters. </t>
   </si>
   <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>1792</t>
-  </si>
-  <si>
-    <t>1794</t>
-  </si>
-  <si>
-    <t>1796</t>
-  </si>
-  <si>
-    <t>1798</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1814</t>
-  </si>
-  <si>
-    <t>1816</t>
-  </si>
-  <si>
-    <t>1818</t>
-  </si>
-  <si>
-    <t>1820</t>
-  </si>
-  <si>
-    <t>1822</t>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>1840</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>1858</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>1864</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1880</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1886</t>
+  </si>
+  <si>
+    <t>1888</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1892</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>1896</t>
   </si>
   <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>2016 figures preliminary as of 9 p.m. Nov. 15, 2016; Read &lt;a href="http://www.electproject.org/national-1789-present"&gt;more about the early historical data&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>1826</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>1830</t>
-  </si>
-  <si>
-    <t>1832</t>
-  </si>
-  <si>
-    <t>1834</t>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>2016 figures as of Feb. 11, 2016; Read &lt;a href="http://www.electproject.org/national-1789-present"&gt;more about the early historical data&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>1916</t>
   </si>
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>1836</t>
-  </si>
-  <si>
-    <t>1838</t>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>1926</t>
   </si>
   <si>
     <t>&lt;a href="http://www.electproject.org/dr-mcdonald-bio"&gt;Michael P. McDonald&lt;/a&gt;: &lt;em&gt;&lt;a href="http://www.electproject.org/2016g"&gt;United States Elections Project&lt;/a&gt;&lt;/em&gt; (&lt;a href="https://docs.google.com/spreadsheets/d/1bH38j6_e8yA9xq8OMlyLOL6h_iTS7ABQMKNxzFgKBDo/edit#gid=435419492"&gt;2016 November General Election&lt;/a&gt; | &lt;a href="http://www.electproject.org/home/voter-turnout/voter-turnout-data"&gt;U.S. VEP Turnout 1789-Present&lt;/a&gt;)</t>
   </si>
   <si>
-    <t>1840</t>
-  </si>
-  <si>
-    <t>1842</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>1846</t>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>1944</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>1848</t>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1948</t>
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>1852</t>
-  </si>
-  <si>
-    <t>1854</t>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1962</t>
   </si>
   <si>
     <t>annotation_label-property</t>
   </si>
   <si>
-    <t>1856</t>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1966</t>
   </si>
   <si>
     <t>Property owner rules end</t>
   </si>
   <si>
-    <t>1858</t>
-  </si>
-  <si>
-    <t>1860</t>
-  </si>
-  <si>
-    <t>1862</t>
-  </si>
-  <si>
-    <t>1864</t>
-  </si>
-  <si>
-    <t>1866</t>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1980</t>
   </si>
   <si>
     <t>annotation_label-2012</t>
   </si>
   <si>
-    <t>1868</t>
+    <t>1982</t>
   </si>
   <si>
     <t>2012: 58.6%</t>
-  </si>
-  <si>
-    <t>1870</t>
-  </si>
-  <si>
-    <t>1872</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>1876</t>
-  </si>
-  <si>
-    <t>1878</t>
-  </si>
-  <si>
-    <t>1880</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>1884</t>
-  </si>
-  <si>
-    <t>1886</t>
-  </si>
-  <si>
-    <t>1888</t>
-  </si>
-  <si>
-    <t>1890</t>
-  </si>
-  <si>
-    <t>1892</t>
-  </si>
-  <si>
-    <t>1894</t>
-  </si>
-  <si>
-    <t>1896</t>
-  </si>
-  <si>
-    <t>1898</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1914</t>
-  </si>
-  <si>
-    <t>1916</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>1922</t>
-  </si>
-  <si>
-    <t>1924</t>
-  </si>
-  <si>
-    <t>1926</t>
-  </si>
-  <si>
-    <t>1928</t>
-  </si>
-  <si>
-    <t>1930</t>
-  </si>
-  <si>
-    <t>1932</t>
-  </si>
-  <si>
-    <t>1934</t>
-  </si>
-  <si>
-    <t>1936</t>
-  </si>
-  <si>
-    <t>1938</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
-    <t>1942</t>
-  </si>
-  <si>
-    <t>1944</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>1948</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1982</t>
   </si>
   <si>
     <t>1984</t>
@@ -428,17 +428,17 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font/>
     <font>
+      <b/>
       <sz val="14.0"/>
     </font>
     <font>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -471,34 +471,34 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -527,484 +527,484 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
+      <c r="A3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1024,811 +1024,811 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>11.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>21.6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>6.3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>25.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
+      <c r="A6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>20.1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
+      <c r="A7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C7">
         <v>36.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
+      <c r="A8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>32.3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
+      <c r="A9" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C9">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
+      <c r="A10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
         <v>23.8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
+      <c r="A11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C11">
         <v>45.8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
+      <c r="A12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
         <v>36.8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
+      <c r="A13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>49.8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
+      <c r="A14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
         <v>40.4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
+      <c r="A15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C15">
         <v>52.8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
+      <c r="A16" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B16">
         <v>16.9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
+      <c r="A17" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C17">
         <v>41.1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
+      <c r="A18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
         <v>10.1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
+      <c r="A19" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C19">
         <v>44.7</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>28</v>
+      <c r="A20" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B20">
         <v>26.9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>30</v>
+      <c r="A21" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C21">
         <v>50.1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>31</v>
+      <c r="A22" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B22">
         <v>57.3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
+      <c r="A23" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C23">
         <v>55.7</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>33</v>
+      <c r="A24" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
         <v>57.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>34</v>
+      <c r="A25" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C25">
         <v>63.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>36</v>
+      <c r="A26" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B26">
         <v>56.5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>37</v>
+      <c r="A27" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C27">
         <v>70.8</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>39</v>
+      <c r="A28" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B28">
         <v>80.3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>40</v>
+      <c r="A29" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C29">
         <v>61.8</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>41</v>
+      <c r="A30" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B30">
         <v>79.2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>42</v>
+      <c r="A31" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C31">
         <v>60.3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>44</v>
+      <c r="A32" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B32">
         <v>72.8</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>46</v>
+      <c r="A33" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C33">
         <v>60.5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>47</v>
+      <c r="A34" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B34">
         <v>69.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>48</v>
+      <c r="A35" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C35">
         <v>66.1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>50</v>
+      <c r="A36" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B36">
         <v>79.4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>52</v>
+      <c r="A37" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C37">
         <v>69.1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>53</v>
+      <c r="A38" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B38">
         <v>81.8</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>54</v>
+      <c r="A39" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C39">
         <v>65.1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>55</v>
+      <c r="A40" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B40">
         <v>76.3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>56</v>
+      <c r="A41" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C41">
         <v>71.4</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>58</v>
+      <c r="A42" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B42">
         <v>80.9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>60</v>
+      <c r="A43" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C43">
         <v>67.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>61</v>
+      <c r="A44" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B44">
         <v>72.1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>62</v>
+      <c r="A45" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C45">
         <v>65.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>63</v>
+      <c r="A46" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B46">
         <v>82.6</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>64</v>
+      <c r="A47" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C47">
         <v>65.2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>65</v>
+      <c r="A48" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B48">
         <v>80.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>66</v>
+      <c r="A49" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C49">
         <v>65.7</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>67</v>
+      <c r="A50" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B50">
         <v>78.2</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>68</v>
+      <c r="A51" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C51">
         <v>63.9</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>69</v>
+      <c r="A52" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B52">
         <v>80.5</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>70</v>
+      <c r="A53" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C53">
         <v>64.6</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>71</v>
+      <c r="A54" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B54">
         <v>75.8</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>72</v>
+      <c r="A55" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C55">
         <v>67.4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>73</v>
+      <c r="A56" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B56">
         <v>79.6</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>74</v>
+      <c r="A57" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C57">
         <v>60.1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>75</v>
+      <c r="A58" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B58">
         <v>73.7</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>76</v>
+      <c r="A59" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C59">
         <v>55.6</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>77</v>
+      <c r="A60" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B60">
         <v>65.5</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>78</v>
+      <c r="A61" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C61">
         <v>51.3</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>79</v>
+      <c r="A62" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B62">
         <v>65.7</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>80</v>
+      <c r="A63" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C63">
         <v>52.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>81</v>
+      <c r="A64" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B64">
         <v>59.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>82</v>
+      <c r="A65" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C65">
         <v>50.4</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>83</v>
+      <c r="A66" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B66">
         <v>61.8</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>84</v>
+      <c r="A67" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C67">
         <v>39.9</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>85</v>
+      <c r="A68" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B68">
         <v>49.2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>86</v>
+      <c r="A69" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C69">
         <v>35.7</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>87</v>
+      <c r="A70" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B70">
         <v>48.9</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>88</v>
+      <c r="A71" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C71">
         <v>32.9</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>89</v>
+      <c r="A72" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B72">
         <v>56.9</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>90</v>
+      <c r="A73" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C73">
         <v>36.7</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
-        <v>91</v>
+      <c r="A74" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B74">
         <v>56.9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="s">
-        <v>92</v>
+      <c r="A75" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C75">
         <v>44.5</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="s">
-        <v>93</v>
+      <c r="A76" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B76">
         <v>61.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="s">
-        <v>94</v>
+      <c r="A77" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C77">
         <v>46.6</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>95</v>
+      <c r="A78" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B78">
         <v>62.4</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="s">
-        <v>96</v>
+      <c r="A79" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C79">
         <v>33.9</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="s">
-        <v>97</v>
+      <c r="A80" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B80">
         <v>55.9</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="s">
-        <v>98</v>
+      <c r="A81" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C81">
         <v>38.8</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="s">
-        <v>99</v>
+      <c r="A82" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B82">
         <v>52.2</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="s">
-        <v>100</v>
+      <c r="A83" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="C83">
         <v>43.6</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="s">
-        <v>101</v>
+      <c r="A84" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B84">
         <v>62.3</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="s">
-        <v>102</v>
+      <c r="A85" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C85">
         <v>43.5</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="s">
-        <v>103</v>
+      <c r="A86" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B86">
         <v>60.2</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="s">
-        <v>104</v>
+      <c r="A87" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C87">
         <v>45.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>105</v>
+      <c r="A88" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B88">
         <v>63.8</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="s">
-        <v>106</v>
+      <c r="A89" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C89">
         <v>47.7</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="s">
-        <v>107</v>
+      <c r="A90" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B90">
         <v>62.8</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="s">
-        <v>108</v>
+      <c r="A91" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C91">
         <v>48.7</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="s">
-        <v>109</v>
+      <c r="A92" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B92">
         <v>62.5</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="s">
-        <v>110</v>
+      <c r="A93" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C93">
         <v>47.3</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="s">
-        <v>111</v>
+      <c r="A94" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B94">
         <v>56.2</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="s">
-        <v>112</v>
+      <c r="A95" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C95">
         <v>39.1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="s">
-        <v>113</v>
+      <c r="A96" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B96">
         <v>54.8</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="8" t="s">
-        <v>114</v>
+      <c r="A97" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C97">
         <v>39.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="s">
-        <v>115</v>
+      <c r="A98" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B98">
         <v>54.2</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="s">
-        <v>116</v>
+      <c r="A99" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C99">
         <v>42.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B100">
@@ -1836,7 +1836,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C101">
@@ -1844,7 +1844,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B102">
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C103">
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B104">
@@ -1868,7 +1868,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C105">
@@ -1876,7 +1876,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B106">
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C107">
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B108">
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C109">
@@ -1908,7 +1908,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B110">
@@ -1916,7 +1916,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C111">
@@ -1924,7 +1924,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B112">
@@ -1932,7 +1932,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C113">
@@ -1940,7 +1940,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B114">
@@ -1948,7 +1948,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C115">
@@ -1956,18 +1956,18 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B116" s="4">
-        <v>58.1</v>
+      <c r="B116" s="2">
+        <v>60.2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="10"/>
     </row>
     <row r="118">
-      <c r="A118" s="8"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119">
       <c r="A119" s="11"/>

--- a/voter-turnout-history-20161017/voter-turnout-history-20161017.xlsx
+++ b/voter-turnout-history-20161017/voter-turnout-history-20161017.xlsx
@@ -14,10 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
-    <t>key</t>
+    <t>value</t>
   </si>
   <si>
     <t>General</t>
@@ -26,13 +29,19 @@
     <t>Midterm</t>
   </si>
   <si>
-    <t>value</t>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>Historic Turnout In U.S. Elections</t>
   </si>
   <si>
     <t>1789</t>
   </si>
   <si>
-    <t>headline</t>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a percentage of estimated eligible voters. </t>
   </si>
   <si>
     <t>1790</t>
@@ -44,9 +53,6 @@
     <t>1794</t>
   </si>
   <si>
-    <t>Historic Turnout In U.S. Elections</t>
-  </si>
-  <si>
     <t>1796</t>
   </si>
   <si>
@@ -95,27 +101,27 @@
     <t>1826</t>
   </si>
   <si>
-    <t>subhed</t>
-  </si>
-  <si>
     <t>1828</t>
   </si>
   <si>
-    <t xml:space="preserve">As a percentage of estimated eligible voters. </t>
-  </si>
-  <si>
     <t>1830</t>
   </si>
   <si>
     <t>1832</t>
   </si>
   <si>
+    <t>footnote</t>
+  </si>
+  <si>
     <t>1834</t>
   </si>
   <si>
     <t>1836</t>
   </si>
   <si>
+    <t>2016 figures as of Feb. 11, 2016; Read &lt;a href="http://www.electproject.org/national-1789-present"&gt;more about the early historical data&lt;/a&gt;.</t>
+  </si>
+  <si>
     <t>1838</t>
   </si>
   <si>
@@ -137,9 +143,15 @@
     <t>1850</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>1852</t>
   </si>
   <si>
+    <t>&lt;a href="http://www.electproject.org/dr-mcdonald-bio"&gt;Michael P. McDonald&lt;/a&gt;: &lt;em&gt;&lt;a href="http://www.electproject.org/2016g"&gt;United States Elections Project&lt;/a&gt;&lt;/em&gt; (&lt;a href="https://docs.google.com/spreadsheets/d/1bH38j6_e8yA9xq8OMlyLOL6h_iTS7ABQMKNxzFgKBDo/edit#gid=435419492"&gt;2016 November General Election&lt;/a&gt; | &lt;a href="http://www.electproject.org/home/voter-turnout/voter-turnout-data"&gt;U.S. VEP Turnout 1789-Present&lt;/a&gt;)</t>
+  </si>
+  <si>
     <t>1854</t>
   </si>
   <si>
@@ -161,9 +173,15 @@
     <t>1866</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>1868</t>
   </si>
   <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>1870</t>
   </si>
   <si>
@@ -176,9 +194,15 @@
     <t>1876</t>
   </si>
   <si>
+    <t>annotation_label-property</t>
+  </si>
+  <si>
     <t>1878</t>
   </si>
   <si>
+    <t>Property owner rules end</t>
+  </si>
+  <si>
     <t>1880</t>
   </si>
   <si>
@@ -188,9 +212,15 @@
     <t>1884</t>
   </si>
   <si>
+    <t>annotation_label-2012</t>
+  </si>
+  <si>
     <t>1886</t>
   </si>
   <si>
+    <t>2012: 58.6%</t>
+  </si>
+  <si>
     <t>1888</t>
   </si>
   <si>
@@ -206,18 +236,12 @@
     <t>1896</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>1898</t>
   </si>
   <si>
     <t>1900</t>
   </si>
   <si>
-    <t>2016 figures as of Feb. 11, 2016; Read &lt;a href="http://www.electproject.org/national-1789-present"&gt;more about the early historical data&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>1902</t>
   </si>
   <si>
@@ -242,9 +266,6 @@
     <t>1916</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>1918</t>
   </si>
   <si>
@@ -260,9 +281,6 @@
     <t>1926</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.electproject.org/dr-mcdonald-bio"&gt;Michael P. McDonald&lt;/a&gt;: &lt;em&gt;&lt;a href="http://www.electproject.org/2016g"&gt;United States Elections Project&lt;/a&gt;&lt;/em&gt; (&lt;a href="https://docs.google.com/spreadsheets/d/1bH38j6_e8yA9xq8OMlyLOL6h_iTS7ABQMKNxzFgKBDo/edit#gid=435419492"&gt;2016 November General Election&lt;/a&gt; | &lt;a href="http://www.electproject.org/home/voter-turnout/voter-turnout-data"&gt;U.S. VEP Turnout 1789-Present&lt;/a&gt;)</t>
-  </si>
-  <si>
     <t>1928</t>
   </si>
   <si>
@@ -290,18 +308,12 @@
     <t>1944</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>1946</t>
   </si>
   <si>
     <t>1948</t>
   </si>
   <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>1950</t>
   </si>
   <si>
@@ -323,18 +335,12 @@
     <t>1962</t>
   </si>
   <si>
-    <t>annotation_label-property</t>
-  </si>
-  <si>
     <t>1964</t>
   </si>
   <si>
     <t>1966</t>
   </si>
   <si>
-    <t>Property owner rules end</t>
-  </si>
-  <si>
     <t>1968</t>
   </si>
   <si>
@@ -356,13 +362,7 @@
     <t>1980</t>
   </si>
   <si>
-    <t>annotation_label-2012</t>
-  </si>
-  <si>
     <t>1982</t>
-  </si>
-  <si>
-    <t>2012: 58.6%</t>
   </si>
   <si>
     <t>1984</t>
@@ -428,17 +428,17 @@
     </font>
     <font>
       <b/>
+      <sz val="14.0"/>
+    </font>
+    <font>
+      <b/>
     </font>
     <font/>
     <font>
-      <b/>
       <sz val="14.0"/>
     </font>
     <font>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -456,49 +456,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -508,15 +503,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,484 +525,484 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1013,6 +1011,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,195 +1025,195 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
+      <c r="A2" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
         <v>11.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
+      <c r="A3" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
         <v>21.6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
+      <c r="A4" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
         <v>6.3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
+      <c r="A5" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
         <v>25.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
+      <c r="A6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>20.1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
+      <c r="A7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>36.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
+      <c r="A8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>32.3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
+      <c r="A9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
+      <c r="A10" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B10">
         <v>23.8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
+      <c r="A11" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
         <v>45.8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
+      <c r="A12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B12">
         <v>36.8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>18</v>
+      <c r="A13" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C13">
         <v>49.8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
+      <c r="A14" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
         <v>40.4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
+      <c r="A15" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C15">
         <v>52.8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
+      <c r="A16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B16">
         <v>16.9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
+      <c r="A17" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C17">
         <v>41.1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
+      <c r="A18" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B18">
         <v>10.1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
+      <c r="A19" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C19">
         <v>44.7</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
+      <c r="A20" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B20">
         <v>26.9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
+      <c r="A21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C21">
         <v>50.1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
+      <c r="A22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B22">
         <v>57.3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C23">
@@ -1220,7 +1221,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B24">
@@ -1228,607 +1229,607 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>32</v>
+      <c r="A25" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C25">
         <v>63.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>33</v>
+      <c r="A26" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B26">
         <v>56.5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>34</v>
+      <c r="A27" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C27">
         <v>70.8</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>35</v>
+      <c r="A28" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B28">
         <v>80.3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>36</v>
+      <c r="A29" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C29">
         <v>61.8</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>37</v>
+      <c r="A30" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B30">
         <v>79.2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
-        <v>38</v>
+      <c r="A31" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C31">
         <v>60.3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>39</v>
+      <c r="A32" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B32">
         <v>72.8</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>40</v>
+      <c r="A33" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C33">
         <v>60.5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
+      <c r="A34" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B34">
         <v>69.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>42</v>
+      <c r="A35" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C35">
         <v>66.1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
-        <v>43</v>
+      <c r="A36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B36">
         <v>79.4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>44</v>
+      <c r="A37" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C37">
         <v>69.1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>45</v>
+      <c r="A38" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B38">
         <v>81.8</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>46</v>
+      <c r="A39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C39">
         <v>65.1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>47</v>
+      <c r="A40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B40">
         <v>76.3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>48</v>
+      <c r="A41" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C41">
         <v>71.4</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>49</v>
+      <c r="A42" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B42">
         <v>80.9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>50</v>
+      <c r="A43" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C43">
         <v>67.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>51</v>
+      <c r="A44" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B44">
         <v>72.1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>52</v>
+      <c r="A45" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C45">
         <v>65.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>53</v>
+      <c r="A46" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B46">
         <v>82.6</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>54</v>
+      <c r="A47" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C47">
         <v>65.2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>55</v>
+      <c r="A48" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B48">
         <v>80.5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>56</v>
+      <c r="A49" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C49">
         <v>65.7</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>57</v>
+      <c r="A50" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B50">
         <v>78.2</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>58</v>
+      <c r="A51" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C51">
         <v>63.9</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>59</v>
+      <c r="A52" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B52">
         <v>80.5</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>60</v>
+      <c r="A53" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C53">
         <v>64.6</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>61</v>
+      <c r="A54" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B54">
         <v>75.8</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>62</v>
+      <c r="A55" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C55">
         <v>67.4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>63</v>
+      <c r="A56" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B56">
         <v>79.6</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>65</v>
+      <c r="A57" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C57">
         <v>60.1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>66</v>
+      <c r="A58" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B58">
         <v>73.7</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="s">
-        <v>68</v>
+      <c r="A59" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C59">
         <v>55.6</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="s">
-        <v>69</v>
+      <c r="A60" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B60">
         <v>65.5</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="s">
-        <v>70</v>
+      <c r="A61" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C61">
         <v>51.3</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
-        <v>71</v>
+      <c r="A62" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B62">
         <v>65.7</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="s">
-        <v>72</v>
+      <c r="A63" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C63">
         <v>52.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="s">
-        <v>73</v>
+      <c r="A64" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="B64">
         <v>59.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="s">
-        <v>74</v>
+      <c r="A65" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C65">
         <v>50.4</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="s">
-        <v>75</v>
+      <c r="A66" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B66">
         <v>61.8</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="s">
-        <v>77</v>
+      <c r="A67" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C67">
         <v>39.9</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="s">
-        <v>78</v>
+      <c r="A68" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B68">
         <v>49.2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="s">
-        <v>79</v>
+      <c r="A69" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C69">
         <v>35.7</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="s">
-        <v>80</v>
+      <c r="A70" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B70">
         <v>48.9</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="s">
-        <v>81</v>
+      <c r="A71" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C71">
         <v>32.9</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="s">
-        <v>83</v>
+      <c r="A72" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="B72">
         <v>56.9</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="s">
-        <v>84</v>
+      <c r="A73" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C73">
         <v>36.7</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="s">
-        <v>85</v>
+      <c r="A74" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B74">
         <v>56.9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="s">
-        <v>86</v>
+      <c r="A75" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C75">
         <v>44.5</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="s">
-        <v>87</v>
+      <c r="A76" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B76">
         <v>61.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="s">
-        <v>88</v>
+      <c r="A77" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C77">
         <v>46.6</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="s">
-        <v>89</v>
+      <c r="A78" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B78">
         <v>62.4</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="s">
-        <v>90</v>
+      <c r="A79" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C79">
         <v>33.9</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="s">
-        <v>91</v>
+      <c r="A80" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B80">
         <v>55.9</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="s">
-        <v>93</v>
+      <c r="A81" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C81">
         <v>38.8</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="s">
-        <v>94</v>
+      <c r="A82" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B82">
         <v>52.2</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="s">
-        <v>96</v>
+      <c r="A83" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C83">
         <v>43.6</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="s">
-        <v>97</v>
+      <c r="A84" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B84">
         <v>62.3</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="s">
-        <v>98</v>
+      <c r="A85" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C85">
         <v>43.5</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="6" t="s">
-        <v>99</v>
+      <c r="A86" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B86">
         <v>60.2</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="s">
-        <v>100</v>
+      <c r="A87" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C87">
         <v>45.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="s">
-        <v>101</v>
+      <c r="A88" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B88">
         <v>63.8</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="s">
-        <v>102</v>
+      <c r="A89" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C89">
         <v>47.7</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="s">
-        <v>104</v>
+      <c r="A90" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B90">
         <v>62.8</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="s">
-        <v>105</v>
+      <c r="A91" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C91">
         <v>48.7</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="s">
-        <v>107</v>
+      <c r="A92" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B92">
         <v>62.5</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="s">
-        <v>108</v>
+      <c r="A93" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C93">
         <v>47.3</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="s">
-        <v>109</v>
+      <c r="A94" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B94">
         <v>56.2</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="6" t="s">
-        <v>110</v>
+      <c r="A95" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C95">
         <v>39.1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="s">
-        <v>111</v>
+      <c r="A96" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B96">
         <v>54.8</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="s">
-        <v>112</v>
+      <c r="A97" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C97">
         <v>39.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="s">
-        <v>113</v>
+      <c r="A98" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="B98">
         <v>54.2</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="s">
-        <v>115</v>
+      <c r="A99" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C99">
         <v>42.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B100">
@@ -1836,7 +1837,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C101">
@@ -1844,7 +1845,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B102">
@@ -1852,7 +1853,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C103">
@@ -1860,7 +1861,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B104">
@@ -1868,7 +1869,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C105">
@@ -1876,7 +1877,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B106">
@@ -1884,7 +1885,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C107">
@@ -1892,7 +1893,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B108">
@@ -1900,7 +1901,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C109">
@@ -1908,7 +1909,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B110">
@@ -1916,7 +1917,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C111">
@@ -1924,7 +1925,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B112">
@@ -1932,7 +1933,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C113">
@@ -1940,7 +1941,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B114">
@@ -1948,7 +1949,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C115">
@@ -1956,10 +1957,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="4">
         <v>60.2</v>
       </c>
     </row>
@@ -1967,7 +1968,7 @@
       <c r="A117" s="10"/>
     </row>
     <row r="118">
-      <c r="A118" s="6"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119">
       <c r="A119" s="11"/>
